--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/31/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/31/FD_Curve.xlsx
@@ -466,21 +466,21 @@
         <v>0.0310005</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8665</v>
+        <v>1.11364</v>
       </c>
       <c r="C3" t="n">
-        <v>866.5</v>
+        <v>1113.64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0620039</v>
+        <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0712</v>
+        <v>1.96335</v>
       </c>
       <c r="C4" t="n">
-        <v>1071.2</v>
+        <v>1963.35</v>
       </c>
     </row>
     <row r="5">
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>1.16062</v>
+        <v>2.26796</v>
       </c>
       <c r="C5" t="n">
-        <v>1160.62</v>
+        <v>2267.96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.123997</v>
+        <v>0.123992</v>
       </c>
       <c r="B6" t="n">
-        <v>1.24981</v>
+        <v>2.51665</v>
       </c>
       <c r="C6" t="n">
-        <v>1249.81</v>
+        <v>2516.65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155027</v>
+        <v>0.155023</v>
       </c>
       <c r="B7" t="n">
-        <v>1.32719</v>
+        <v>2.70587</v>
       </c>
       <c r="C7" t="n">
-        <v>1327.19</v>
+        <v>2705.87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186003</v>
+        <v>0.185999</v>
       </c>
       <c r="B8" t="n">
-        <v>1.39774</v>
+        <v>2.87931</v>
       </c>
       <c r="C8" t="n">
-        <v>1397.74</v>
+        <v>2879.31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216958</v>
+        <v>0.21697</v>
       </c>
       <c r="B9" t="n">
-        <v>1.45889</v>
+        <v>3.03981</v>
       </c>
       <c r="C9" t="n">
-        <v>1458.89</v>
+        <v>3039.81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247883</v>
+        <v>0.247895</v>
       </c>
       <c r="B10" t="n">
-        <v>1.51632</v>
+        <v>3.1869</v>
       </c>
       <c r="C10" t="n">
-        <v>1516.32</v>
+        <v>3186.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278808</v>
+        <v>0.27882</v>
       </c>
       <c r="B11" t="n">
-        <v>1.56868</v>
+        <v>3.31552</v>
       </c>
       <c r="C11" t="n">
-        <v>1568.68</v>
+        <v>3315.52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309796</v>
+        <v>0.309781</v>
       </c>
       <c r="B12" t="n">
-        <v>1.61818</v>
+        <v>3.43111</v>
       </c>
       <c r="C12" t="n">
-        <v>1618.18</v>
+        <v>3431.11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340721</v>
+        <v>0.340706</v>
       </c>
       <c r="B13" t="n">
-        <v>1.665</v>
+        <v>3.539</v>
       </c>
       <c r="C13" t="n">
-        <v>1665</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371646</v>
+        <v>0.371631</v>
       </c>
       <c r="B14" t="n">
-        <v>1.71011</v>
+        <v>3.64447</v>
       </c>
       <c r="C14" t="n">
-        <v>1710.11</v>
+        <v>3644.47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402571</v>
+        <v>0.402556</v>
       </c>
       <c r="B15" t="n">
-        <v>1.75388</v>
+        <v>3.74761</v>
       </c>
       <c r="C15" t="n">
-        <v>1753.88</v>
+        <v>3747.61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433496</v>
+        <v>0.433481</v>
       </c>
       <c r="B16" t="n">
-        <v>1.79657</v>
+        <v>3.84194</v>
       </c>
       <c r="C16" t="n">
-        <v>1796.57</v>
+        <v>3841.94</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464421</v>
+        <v>0.464406</v>
       </c>
       <c r="B17" t="n">
-        <v>1.83846</v>
+        <v>3.92569</v>
       </c>
       <c r="C17" t="n">
-        <v>1838.46</v>
+        <v>3925.69</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495346</v>
+        <v>0.495331</v>
       </c>
       <c r="B18" t="n">
-        <v>1.87975</v>
+        <v>4.01166</v>
       </c>
       <c r="C18" t="n">
-        <v>1879.75</v>
+        <v>4011.66</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526271</v>
+        <v>0.5262559999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>1.91933</v>
+        <v>4.09117</v>
       </c>
       <c r="C19" t="n">
-        <v>1919.33</v>
+        <v>4091.17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557196</v>
+        <v>0.557181</v>
       </c>
       <c r="B20" t="n">
-        <v>1.95763</v>
+        <v>4.16074</v>
       </c>
       <c r="C20" t="n">
-        <v>1957.63</v>
+        <v>4160.74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588121</v>
+        <v>0.588106</v>
       </c>
       <c r="B21" t="n">
-        <v>1.99528</v>
+        <v>4.23353</v>
       </c>
       <c r="C21" t="n">
-        <v>1995.28</v>
+        <v>4233.53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619159</v>
+        <v>0.619148</v>
       </c>
       <c r="B22" t="n">
-        <v>2.03245</v>
+        <v>4.294960000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>2032.45</v>
+        <v>4294.96</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650336</v>
+        <v>0.650321</v>
       </c>
       <c r="B23" t="n">
-        <v>2.06878</v>
+        <v>4.356850000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>2068.78</v>
+        <v>4356.85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681508</v>
+        <v>0.681494</v>
       </c>
       <c r="B24" t="n">
-        <v>2.10454</v>
+        <v>4.41174</v>
       </c>
       <c r="C24" t="n">
-        <v>2104.54</v>
+        <v>4411.74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712685</v>
+        <v>0.7126710000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>2.13931</v>
+        <v>4.46411</v>
       </c>
       <c r="C25" t="n">
-        <v>2139.31</v>
+        <v>4464.11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743858</v>
+        <v>0.743843</v>
       </c>
       <c r="B26" t="n">
-        <v>2.17314</v>
+        <v>4.51129</v>
       </c>
       <c r="C26" t="n">
-        <v>2173.14</v>
+        <v>4511.29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.77503</v>
+        <v>0.775016</v>
       </c>
       <c r="B27" t="n">
-        <v>2.20659</v>
+        <v>4.556229999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>2206.59</v>
+        <v>4556.23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806207</v>
+        <v>0.806193</v>
       </c>
       <c r="B28" t="n">
-        <v>2.23934</v>
+        <v>4.59479</v>
       </c>
       <c r="C28" t="n">
-        <v>2239.34</v>
+        <v>4594.79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.83738</v>
+        <v>0.837365</v>
       </c>
       <c r="B29" t="n">
-        <v>2.27171</v>
+        <v>4.6336</v>
       </c>
       <c r="C29" t="n">
-        <v>2271.71</v>
+        <v>4633.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868553</v>
+        <v>0.868542</v>
       </c>
       <c r="B30" t="n">
-        <v>2.30328</v>
+        <v>4.66484</v>
       </c>
       <c r="C30" t="n">
-        <v>2303.28</v>
+        <v>4664.84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.89973</v>
+        <v>0.899715</v>
       </c>
       <c r="B31" t="n">
-        <v>2.33419</v>
+        <v>4.69683</v>
       </c>
       <c r="C31" t="n">
-        <v>2334.19</v>
+        <v>4696.83</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930902</v>
+        <v>0.930887</v>
       </c>
       <c r="B32" t="n">
-        <v>2.36467</v>
+        <v>4.72445</v>
       </c>
       <c r="C32" t="n">
-        <v>2364.67</v>
+        <v>4724.45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962075</v>
+        <v>0.962064</v>
       </c>
       <c r="B33" t="n">
-        <v>2.39449</v>
+        <v>4.74803</v>
       </c>
       <c r="C33" t="n">
-        <v>2394.49</v>
+        <v>4748.03</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993238</v>
+        <v>0.993237</v>
       </c>
       <c r="B34" t="n">
-        <v>2.42389</v>
+        <v>4.77194</v>
       </c>
       <c r="C34" t="n">
-        <v>2423.89</v>
+        <v>4771.94</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.0242</v>
+        <v>1.02422</v>
       </c>
       <c r="B35" t="n">
-        <v>2.4527</v>
+        <v>4.79274</v>
       </c>
       <c r="C35" t="n">
-        <v>2452.7</v>
+        <v>4792.74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05517</v>
+        <v>1.05519</v>
       </c>
       <c r="B36" t="n">
-        <v>2.48101</v>
+        <v>4.81036</v>
       </c>
       <c r="C36" t="n">
-        <v>2481.01</v>
+        <v>4810.36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08614</v>
+        <v>1.08615</v>
       </c>
       <c r="B37" t="n">
-        <v>2.50881</v>
+        <v>4.8277</v>
       </c>
       <c r="C37" t="n">
-        <v>2508.81</v>
+        <v>4827.7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11711</v>
+        <v>1.11712</v>
       </c>
       <c r="B38" t="n">
-        <v>2.53619</v>
+        <v>4.844279999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>2536.19</v>
+        <v>4844.28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14808</v>
+        <v>1.14809</v>
       </c>
       <c r="B39" t="n">
-        <v>2.56321</v>
+        <v>4.85888</v>
       </c>
       <c r="C39" t="n">
-        <v>2563.21</v>
+        <v>4858.88</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17904</v>
+        <v>1.17906</v>
       </c>
       <c r="B40" t="n">
-        <v>2.58985</v>
+        <v>4.871810000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>2589.85</v>
+        <v>4871.81</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21001</v>
+        <v>1.21003</v>
       </c>
       <c r="B41" t="n">
-        <v>2.61619</v>
+        <v>4.88405</v>
       </c>
       <c r="C41" t="n">
-        <v>2616.19</v>
+        <v>4884.05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24098</v>
+        <v>1.24099</v>
       </c>
       <c r="B42" t="n">
-        <v>2.64209</v>
+        <v>4.89601</v>
       </c>
       <c r="C42" t="n">
-        <v>2642.09</v>
+        <v>4896.01</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27195</v>
+        <v>1.27196</v>
       </c>
       <c r="B43" t="n">
-        <v>2.66759</v>
+        <v>4.90749</v>
       </c>
       <c r="C43" t="n">
-        <v>2667.59</v>
+        <v>4907.49</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30291</v>
+        <v>1.30293</v>
       </c>
       <c r="B44" t="n">
-        <v>2.69272</v>
+        <v>4.918220000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>2692.72</v>
+        <v>4918.22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33388</v>
+        <v>1.3339</v>
       </c>
       <c r="B45" t="n">
-        <v>2.71756</v>
+        <v>4.928310000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>2717.56</v>
+        <v>4928.31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36485</v>
+        <v>1.36486</v>
       </c>
       <c r="B46" t="n">
-        <v>2.74201</v>
+        <v>4.93778</v>
       </c>
       <c r="C46" t="n">
-        <v>2742.01</v>
+        <v>4937.78</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39582</v>
+        <v>1.39583</v>
       </c>
       <c r="B47" t="n">
-        <v>2.7662</v>
+        <v>4.94679</v>
       </c>
       <c r="C47" t="n">
-        <v>2766.2</v>
+        <v>4946.79</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42679</v>
+        <v>1.4268</v>
       </c>
       <c r="B48" t="n">
-        <v>2.79004</v>
+        <v>4.955430000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>2790.04</v>
+        <v>4955.43</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45775</v>
+        <v>1.45777</v>
       </c>
       <c r="B49" t="n">
-        <v>2.81359</v>
+        <v>4.96373</v>
       </c>
       <c r="C49" t="n">
-        <v>2813.59</v>
+        <v>4963.73</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48872</v>
+        <v>1.48874</v>
       </c>
       <c r="B50" t="n">
-        <v>2.83696</v>
+        <v>4.971760000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>2836.96</v>
+        <v>4971.76</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51969</v>
+        <v>1.5197</v>
       </c>
       <c r="B51" t="n">
-        <v>2.85999</v>
+        <v>4.97949</v>
       </c>
       <c r="C51" t="n">
-        <v>2859.99</v>
+        <v>4979.49</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55065</v>
+        <v>1.55067</v>
       </c>
       <c r="B52" t="n">
-        <v>2.88271</v>
+        <v>4.98697</v>
       </c>
       <c r="C52" t="n">
-        <v>2882.71</v>
+        <v>4986.97</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58163</v>
+        <v>1.58164</v>
       </c>
       <c r="B53" t="n">
-        <v>2.90514</v>
+        <v>4.99419</v>
       </c>
       <c r="C53" t="n">
-        <v>2905.14</v>
+        <v>4994.19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61259</v>
+        <v>1.61261</v>
       </c>
       <c r="B54" t="n">
-        <v>2.92733</v>
+        <v>5.00114</v>
       </c>
       <c r="C54" t="n">
-        <v>2927.33</v>
+        <v>5001.14</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64356</v>
+        <v>1.64358</v>
       </c>
       <c r="B55" t="n">
-        <v>2.94933</v>
+        <v>5.007890000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>2949.33</v>
+        <v>5007.89</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67453</v>
+        <v>1.67454</v>
       </c>
       <c r="B56" t="n">
-        <v>2.97102</v>
+        <v>5.014399999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>2971.02</v>
+        <v>5014.4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70549</v>
+        <v>1.70551</v>
       </c>
       <c r="B57" t="n">
-        <v>2.99241</v>
+        <v>5.02071</v>
       </c>
       <c r="C57" t="n">
-        <v>2992.41</v>
+        <v>5020.71</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73646</v>
+        <v>1.7364</v>
       </c>
       <c r="B58" t="n">
-        <v>3.01356</v>
+        <v>5.026800000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>3013.56</v>
+        <v>5026.8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76743</v>
+        <v>1.76695</v>
       </c>
       <c r="B59" t="n">
-        <v>3.03451</v>
+        <v>5.03272</v>
       </c>
       <c r="C59" t="n">
-        <v>3034.51</v>
+        <v>5032.72</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.7984</v>
+        <v>1.7975</v>
       </c>
       <c r="B60" t="n">
-        <v>3.05523</v>
+        <v>5.03842</v>
       </c>
       <c r="C60" t="n">
-        <v>3055.23</v>
+        <v>5038.42</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82937</v>
+        <v>1.82806</v>
       </c>
       <c r="B61" t="n">
-        <v>3.07572</v>
+        <v>5.04396</v>
       </c>
       <c r="C61" t="n">
-        <v>3075.72</v>
+        <v>5043.96</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86033</v>
+        <v>1.85861</v>
       </c>
       <c r="B62" t="n">
-        <v>3.096</v>
+        <v>5.04928</v>
       </c>
       <c r="C62" t="n">
-        <v>3096</v>
+        <v>5049.28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.8913</v>
+        <v>1.88917</v>
       </c>
       <c r="B63" t="n">
-        <v>3.116</v>
+        <v>5.05447</v>
       </c>
       <c r="C63" t="n">
-        <v>3116</v>
+        <v>5054.47</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92227</v>
+        <v>1.92058</v>
       </c>
       <c r="B64" t="n">
-        <v>3.13584</v>
+        <v>5.05963</v>
       </c>
       <c r="C64" t="n">
-        <v>3135.84</v>
+        <v>5059.63</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95324</v>
+        <v>1.95216</v>
       </c>
       <c r="B65" t="n">
-        <v>3.15547</v>
+        <v>5.0647</v>
       </c>
       <c r="C65" t="n">
-        <v>3155.47</v>
+        <v>5064.7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98421</v>
+        <v>1.98373</v>
       </c>
       <c r="B66" t="n">
-        <v>3.1749</v>
+        <v>5.06961</v>
       </c>
       <c r="C66" t="n">
-        <v>3174.9</v>
+        <v>5069.61</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01477</v>
+        <v>2.01514</v>
       </c>
       <c r="B67" t="n">
-        <v>3.19417</v>
+        <v>5.074380000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>3194.17</v>
+        <v>5074.38</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04532</v>
+        <v>2.04672</v>
       </c>
       <c r="B68" t="n">
-        <v>3.21324</v>
+        <v>5.079</v>
       </c>
       <c r="C68" t="n">
-        <v>3213.24</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07588</v>
+        <v>2.07829</v>
       </c>
       <c r="B69" t="n">
-        <v>3.23208</v>
+        <v>5.08349</v>
       </c>
       <c r="C69" t="n">
-        <v>3232.08</v>
+        <v>5083.49</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10643</v>
+        <v>2.10987</v>
       </c>
       <c r="B70" t="n">
-        <v>3.25075</v>
+        <v>5.08782</v>
       </c>
       <c r="C70" t="n">
-        <v>3250.75</v>
+        <v>5087.82</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13698</v>
+        <v>2.14097</v>
       </c>
       <c r="B71" t="n">
-        <v>3.26926</v>
+        <v>5.09204</v>
       </c>
       <c r="C71" t="n">
-        <v>3269.26</v>
+        <v>5092.04</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.16754</v>
+        <v>2.1717</v>
       </c>
       <c r="B72" t="n">
-        <v>3.28762</v>
+        <v>5.096109999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>3287.62</v>
+        <v>5096.11</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.19809</v>
+        <v>2.20241</v>
       </c>
       <c r="B73" t="n">
-        <v>3.30581</v>
+        <v>5.10007</v>
       </c>
       <c r="C73" t="n">
-        <v>3305.81</v>
+        <v>5100.07</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.22865</v>
+        <v>2.23313</v>
       </c>
       <c r="B74" t="n">
-        <v>3.32383</v>
+        <v>5.10391</v>
       </c>
       <c r="C74" t="n">
-        <v>3323.83</v>
+        <v>5103.91</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.2592</v>
+        <v>2.26385</v>
       </c>
       <c r="B75" t="n">
-        <v>3.34168</v>
+        <v>5.107640000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>3341.68</v>
+        <v>5107.64</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.28976</v>
+        <v>2.29457</v>
       </c>
       <c r="B76" t="n">
-        <v>3.35938</v>
+        <v>5.11125</v>
       </c>
       <c r="C76" t="n">
-        <v>3359.38</v>
+        <v>5111.25</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32032</v>
+        <v>2.32529</v>
       </c>
       <c r="B77" t="n">
-        <v>3.37694</v>
+        <v>5.11474</v>
       </c>
       <c r="C77" t="n">
-        <v>3376.94</v>
+        <v>5114.74</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35087</v>
+        <v>2.35601</v>
       </c>
       <c r="B78" t="n">
-        <v>3.39436</v>
+        <v>5.11812</v>
       </c>
       <c r="C78" t="n">
-        <v>3394.36</v>
+        <v>5118.12</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38142</v>
+        <v>2.38674</v>
       </c>
       <c r="B79" t="n">
-        <v>3.4116</v>
+        <v>5.121390000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>3411.6</v>
+        <v>5121.39</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41198</v>
+        <v>2.41745</v>
       </c>
       <c r="B80" t="n">
-        <v>3.42872</v>
+        <v>5.12455</v>
       </c>
       <c r="C80" t="n">
-        <v>3428.72</v>
+        <v>5124.55</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44342</v>
+        <v>2.44817</v>
       </c>
       <c r="B81" t="n">
-        <v>3.44621</v>
+        <v>5.1276</v>
       </c>
       <c r="C81" t="n">
-        <v>3446.21</v>
+        <v>5127.6</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.475</v>
+        <v>2.47889</v>
       </c>
       <c r="B82" t="n">
-        <v>3.46363</v>
+        <v>5.13055</v>
       </c>
       <c r="C82" t="n">
-        <v>3463.63</v>
+        <v>5130.55</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.50657</v>
+        <v>2.50961</v>
       </c>
       <c r="B83" t="n">
-        <v>3.48082</v>
+        <v>5.13341</v>
       </c>
       <c r="C83" t="n">
-        <v>3480.82</v>
+        <v>5133.41</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.53814</v>
+        <v>2.54033</v>
       </c>
       <c r="B84" t="n">
-        <v>3.49786</v>
+        <v>5.13616</v>
       </c>
       <c r="C84" t="n">
-        <v>3497.86</v>
+        <v>5136.16</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.56972</v>
+        <v>2.57105</v>
       </c>
       <c r="B85" t="n">
-        <v>3.51481</v>
+        <v>5.13881</v>
       </c>
       <c r="C85" t="n">
-        <v>3514.81</v>
+        <v>5138.81</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60129</v>
+        <v>2.60177</v>
       </c>
       <c r="B86" t="n">
-        <v>3.53161</v>
+        <v>5.14138</v>
       </c>
       <c r="C86" t="n">
-        <v>3531.61</v>
+        <v>5141.38</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63287</v>
+        <v>2.63249</v>
       </c>
       <c r="B87" t="n">
-        <v>3.54824</v>
+        <v>5.14386</v>
       </c>
       <c r="C87" t="n">
-        <v>3548.24</v>
+        <v>5143.86</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66444</v>
+        <v>2.66289</v>
       </c>
       <c r="B88" t="n">
-        <v>3.5647</v>
+        <v>5.14623</v>
       </c>
       <c r="C88" t="n">
-        <v>3564.7</v>
+        <v>5146.23</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69601</v>
+        <v>2.69275</v>
       </c>
       <c r="B89" t="n">
-        <v>3.58105</v>
+        <v>5.14852</v>
       </c>
       <c r="C89" t="n">
-        <v>3581.05</v>
+        <v>5148.52</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72759</v>
+        <v>2.72262</v>
       </c>
       <c r="B90" t="n">
-        <v>3.59733</v>
+        <v>5.1507</v>
       </c>
       <c r="C90" t="n">
-        <v>3597.33</v>
+        <v>5150.7</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.75916</v>
+        <v>2.75249</v>
       </c>
       <c r="B91" t="n">
-        <v>3.61348</v>
+        <v>5.1528</v>
       </c>
       <c r="C91" t="n">
-        <v>3613.48</v>
+        <v>5152.8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79073</v>
+        <v>2.78236</v>
       </c>
       <c r="B92" t="n">
-        <v>3.62946</v>
+        <v>5.15482</v>
       </c>
       <c r="C92" t="n">
-        <v>3629.46</v>
+        <v>5154.82</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.8223</v>
+        <v>2.81222</v>
       </c>
       <c r="B93" t="n">
-        <v>3.64532</v>
+        <v>5.15676</v>
       </c>
       <c r="C93" t="n">
-        <v>3645.32</v>
+        <v>5156.76</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85388</v>
+        <v>2.84209</v>
       </c>
       <c r="B94" t="n">
-        <v>3.66108</v>
+        <v>5.158609999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>3661.08</v>
+        <v>5158.61</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88545</v>
+        <v>2.87385</v>
       </c>
       <c r="B95" t="n">
-        <v>3.67673</v>
+        <v>5.1605</v>
       </c>
       <c r="C95" t="n">
-        <v>3676.73</v>
+        <v>5160.5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91702</v>
+        <v>2.90585</v>
       </c>
       <c r="B96" t="n">
-        <v>3.69224</v>
+        <v>5.162310000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>3692.24</v>
+        <v>5162.31</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.9486</v>
+        <v>2.93785</v>
       </c>
       <c r="B97" t="n">
-        <v>3.70763</v>
+        <v>5.16401</v>
       </c>
       <c r="C97" t="n">
-        <v>3707.63</v>
+        <v>5164.01</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98017</v>
+        <v>2.96985</v>
       </c>
       <c r="B98" t="n">
-        <v>3.72289</v>
+        <v>5.16563</v>
       </c>
       <c r="C98" t="n">
-        <v>3722.89</v>
+        <v>5165.63</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01174</v>
+        <v>3.00184</v>
       </c>
       <c r="B99" t="n">
-        <v>3.73802</v>
+        <v>5.167149999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>3738.02</v>
+        <v>5167.15</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04332</v>
+        <v>3.03385</v>
       </c>
       <c r="B100" t="n">
-        <v>3.75303</v>
+        <v>5.16859</v>
       </c>
       <c r="C100" t="n">
-        <v>3753.03</v>
+        <v>5168.59</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07489</v>
+        <v>3.06584</v>
       </c>
       <c r="B101" t="n">
-        <v>3.76794</v>
+        <v>5.16994</v>
       </c>
       <c r="C101" t="n">
-        <v>3767.94</v>
+        <v>5169.94</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10646</v>
+        <v>3.09784</v>
       </c>
       <c r="B102" t="n">
-        <v>3.78278</v>
+        <v>5.17121</v>
       </c>
       <c r="C102" t="n">
-        <v>3782.78</v>
+        <v>5171.21</v>
       </c>
     </row>
   </sheetData>
